--- a/CumulativeTestsByTypeByCounty/2021-02-04.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-02-04.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>45575</v>
+        <v>45648</v>
       </c>
       <c r="C2" s="4">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D2" s="4">
-        <v>4525</v>
+        <v>4592</v>
       </c>
       <c r="E2" s="4">
-        <v>51478</v>
+        <v>51619</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3760</v>
+        <v>3780</v>
       </c>
       <c r="C3" s="4">
         <v>173</v>
       </c>
       <c r="D3" s="4">
-        <v>1701</v>
+        <v>1718</v>
       </c>
       <c r="E3" s="4">
-        <v>5634</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>46486</v>
+        <v>47070</v>
       </c>
       <c r="C4" s="4">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="D4" s="4">
-        <v>12664</v>
+        <v>12819</v>
       </c>
       <c r="E4" s="4">
-        <v>60522</v>
+        <v>61270</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>5923</v>
+        <v>5977</v>
       </c>
       <c r="C5" s="4">
-        <v>1906</v>
+        <v>1912</v>
       </c>
       <c r="D5" s="4">
-        <v>3694</v>
+        <v>3728</v>
       </c>
       <c r="E5" s="4">
-        <v>11523</v>
+        <v>11617</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2606</v>
+        <v>2614</v>
       </c>
       <c r="C6" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="4">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E6" s="4">
-        <v>3059</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C7" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="4">
         <v>73</v>
       </c>
       <c r="E7" s="4">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>35657</v>
+        <v>37304</v>
       </c>
       <c r="C8" s="4">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D8" s="4">
-        <v>3018</v>
+        <v>3051</v>
       </c>
       <c r="E8" s="4">
-        <v>39598</v>
+        <v>41280</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>14496</v>
+        <v>14620</v>
       </c>
       <c r="C9" s="4">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D9" s="4">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E9" s="4">
-        <v>15349</v>
+        <v>15481</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C10" s="4">
         <v>14</v>
       </c>
       <c r="D10" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E10" s="4">
-        <v>2026</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>6239</v>
+        <v>6336</v>
       </c>
       <c r="C11" s="4">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D11" s="4">
-        <v>2210</v>
+        <v>2215</v>
       </c>
       <c r="E11" s="4">
-        <v>8822</v>
+        <v>8925</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>40954</v>
+        <v>41206</v>
       </c>
       <c r="C12" s="4">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="D12" s="4">
-        <v>10975</v>
+        <v>11117</v>
       </c>
       <c r="E12" s="4">
-        <v>52911</v>
+        <v>53308</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1261,13 +1261,13 @@
         <v>1101</v>
       </c>
       <c r="C13" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E13" s="4">
-        <v>1689</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>26747</v>
+        <v>26906</v>
       </c>
       <c r="C14" s="4">
-        <v>4666</v>
+        <v>4682</v>
       </c>
       <c r="D14" s="4">
-        <v>4741</v>
+        <v>4758</v>
       </c>
       <c r="E14" s="4">
-        <v>36154</v>
+        <v>36346</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>199637</v>
+        <v>201665</v>
       </c>
       <c r="C15" s="4">
-        <v>12345</v>
+        <v>12389</v>
       </c>
       <c r="D15" s="4">
-        <v>7033</v>
+        <v>7172</v>
       </c>
       <c r="E15" s="4">
-        <v>219015</v>
+        <v>221226</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1341580</v>
+        <v>1381937</v>
       </c>
       <c r="C16" s="4">
-        <v>39531</v>
+        <v>39671</v>
       </c>
       <c r="D16" s="4">
-        <v>123315</v>
+        <v>124054</v>
       </c>
       <c r="E16" s="4">
-        <v>1504426</v>
+        <v>1545662</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>4675</v>
+        <v>4747</v>
       </c>
       <c r="C17" s="4">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D17" s="4">
         <v>405</v>
       </c>
       <c r="E17" s="4">
-        <v>5278</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1349,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>7707</v>
+        <v>7735</v>
       </c>
       <c r="C19" s="4">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D19" s="4">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="E19" s="4">
-        <v>11720</v>
+        <v>11753</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>51307</v>
+        <v>51572</v>
       </c>
       <c r="C20" s="4">
-        <v>9558</v>
+        <v>9564</v>
       </c>
       <c r="D20" s="4">
-        <v>5387</v>
+        <v>5531</v>
       </c>
       <c r="E20" s="4">
-        <v>66252</v>
+        <v>66667</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>250792</v>
+        <v>252053</v>
       </c>
       <c r="C21" s="4">
-        <v>7891</v>
+        <v>7964</v>
       </c>
       <c r="D21" s="4">
-        <v>18232</v>
+        <v>18358</v>
       </c>
       <c r="E21" s="4">
-        <v>276915</v>
+        <v>278375</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>192112</v>
+        <v>195080</v>
       </c>
       <c r="C22" s="4">
-        <v>5081</v>
+        <v>5097</v>
       </c>
       <c r="D22" s="4">
-        <v>9478</v>
+        <v>9480</v>
       </c>
       <c r="E22" s="4">
-        <v>206671</v>
+        <v>209657</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8062</v>
+        <v>8082</v>
       </c>
       <c r="C23" s="4">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D23" s="4">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E23" s="4">
-        <v>8416</v>
+        <v>8439</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,16 +1445,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C24" s="4">
         <v>92</v>
       </c>
       <c r="D24" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="4">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>11752</v>
+        <v>11772</v>
       </c>
       <c r="C25" s="4">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="D25" s="4">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E25" s="4">
-        <v>13971</v>
+        <v>13998</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>14452</v>
+        <v>14582</v>
       </c>
       <c r="C26" s="4">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D26" s="4">
-        <v>13712</v>
+        <v>13716</v>
       </c>
       <c r="E26" s="4">
-        <v>28843</v>
+        <v>28980</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>11380</v>
+        <v>11494</v>
       </c>
       <c r="C27" s="4">
         <v>220</v>
       </c>
       <c r="D27" s="4">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E27" s="4">
-        <v>12347</v>
+        <v>12462</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>26714</v>
+        <v>26975</v>
       </c>
       <c r="C28" s="4">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="D28" s="4">
-        <v>1954</v>
+        <v>1960</v>
       </c>
       <c r="E28" s="4">
-        <v>29649</v>
+        <v>29922</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>26322</v>
+        <v>26605</v>
       </c>
       <c r="C29" s="4">
-        <v>1445</v>
+        <v>1450</v>
       </c>
       <c r="D29" s="4">
-        <v>3613</v>
+        <v>3640</v>
       </c>
       <c r="E29" s="4">
-        <v>31380</v>
+        <v>31695</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>11457</v>
+        <v>11472</v>
       </c>
       <c r="C30" s="4">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D30" s="4">
-        <v>2579</v>
+        <v>2674</v>
       </c>
       <c r="E30" s="4">
-        <v>14281</v>
+        <v>14393</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4581</v>
+        <v>4587</v>
       </c>
       <c r="C31" s="4">
         <v>210</v>
       </c>
       <c r="D31" s="4">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="E31" s="4">
-        <v>8184</v>
+        <v>8191</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>203021</v>
+        <v>203759</v>
       </c>
       <c r="C32" s="4">
-        <v>6917</v>
+        <v>6942</v>
       </c>
       <c r="D32" s="4">
-        <v>25652</v>
+        <v>25802</v>
       </c>
       <c r="E32" s="4">
-        <v>235590</v>
+        <v>236503</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>4890</v>
+        <v>4917</v>
       </c>
       <c r="C33" s="4">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D33" s="4">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E33" s="4">
-        <v>6293</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1415</v>
+        <v>1423</v>
       </c>
       <c r="C34" s="4">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D34" s="4">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E34" s="4">
-        <v>2084</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>10455</v>
+        <v>10519</v>
       </c>
       <c r="C35" s="4">
-        <v>3033</v>
+        <v>3037</v>
       </c>
       <c r="D35" s="4">
-        <v>2124</v>
+        <v>2151</v>
       </c>
       <c r="E35" s="4">
-        <v>15612</v>
+        <v>15707</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3419</v>
+        <v>3443</v>
       </c>
       <c r="C36" s="4">
         <v>35</v>
       </c>
       <c r="D36" s="4">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="E36" s="4">
-        <v>4875</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>6652</v>
+        <v>6693</v>
       </c>
       <c r="C37" s="4">
         <v>513</v>
       </c>
       <c r="D37" s="4">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="E37" s="4">
-        <v>7945</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>19298</v>
+        <v>19402</v>
       </c>
       <c r="C38" s="4">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D38" s="4">
-        <v>5136</v>
+        <v>5164</v>
       </c>
       <c r="E38" s="4">
-        <v>25133</v>
+        <v>25267</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2450</v>
+        <v>2528</v>
       </c>
       <c r="C39" s="4">
         <v>124</v>
       </c>
       <c r="D39" s="4">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="E39" s="4">
-        <v>6104</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3570</v>
+        <v>3587</v>
       </c>
       <c r="C40" s="4">
         <v>102</v>
       </c>
       <c r="D40" s="4">
-        <v>801</v>
+        <v>837</v>
       </c>
       <c r="E40" s="4">
-        <v>4473</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C41" s="4">
         <v>14</v>
       </c>
       <c r="D41" s="4">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E41" s="4">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1561</v>
+        <v>1567</v>
       </c>
       <c r="C42" s="4">
         <v>21</v>
       </c>
       <c r="D42" s="4">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="E42" s="4">
-        <v>3229</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2734</v>
+        <v>2754</v>
       </c>
       <c r="C43" s="4">
         <v>70</v>
       </c>
       <c r="D43" s="4">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="E43" s="4">
-        <v>4906</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>724443</v>
+        <v>728800</v>
       </c>
       <c r="C44" s="4">
-        <v>72304</v>
+        <v>72558</v>
       </c>
       <c r="D44" s="4">
-        <v>58334</v>
+        <v>58484</v>
       </c>
       <c r="E44" s="4">
-        <v>855081</v>
+        <v>859842</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>917</v>
+        <v>933</v>
       </c>
       <c r="C45" s="4">
         <v>13</v>
       </c>
       <c r="D45" s="4">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E45" s="4">
-        <v>1882</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>10035</v>
+        <v>10089</v>
       </c>
       <c r="C46" s="4">
         <v>249</v>
       </c>
       <c r="D46" s="4">
-        <v>2470</v>
+        <v>2556</v>
       </c>
       <c r="E46" s="4">
-        <v>12754</v>
+        <v>12894</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>76317</v>
+        <v>77305</v>
       </c>
       <c r="C47" s="4">
-        <v>6088</v>
+        <v>6109</v>
       </c>
       <c r="D47" s="4">
-        <v>12020</v>
+        <v>12059</v>
       </c>
       <c r="E47" s="4">
-        <v>94425</v>
+        <v>95473</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>5801</v>
+        <v>5843</v>
       </c>
       <c r="C48" s="4">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D48" s="4">
-        <v>1796</v>
+        <v>1816</v>
       </c>
       <c r="E48" s="4">
-        <v>7878</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1271</v>
+        <v>1290</v>
       </c>
       <c r="C49" s="4">
         <v>12</v>
       </c>
       <c r="D49" s="4">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="E49" s="4">
-        <v>2312</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>20311</v>
+        <v>20443</v>
       </c>
       <c r="C50" s="4">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="D50" s="4">
-        <v>3457</v>
+        <v>3462</v>
       </c>
       <c r="E50" s="4">
-        <v>24930</v>
+        <v>25077</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>71150</v>
+        <v>71364</v>
       </c>
       <c r="C51" s="4">
-        <v>2023</v>
+        <v>2030</v>
       </c>
       <c r="D51" s="4">
-        <v>1986</v>
+        <v>2001</v>
       </c>
       <c r="E51" s="4">
-        <v>75159</v>
+        <v>75395</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C52" s="4">
         <v>13</v>
       </c>
       <c r="D52" s="4">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E52" s="4">
-        <v>1188</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,7 +1938,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>3535</v>
+        <v>3623</v>
       </c>
       <c r="C53" s="4">
         <v>59</v>
@@ -1947,7 +1947,7 @@
         <v>903</v>
       </c>
       <c r="E53" s="4">
-        <v>4497</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C54" s="4">
         <v>11</v>
       </c>
       <c r="D54" s="4">
-        <v>1592</v>
+        <v>1602</v>
       </c>
       <c r="E54" s="4">
-        <v>2510</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2181</v>
+        <v>2186</v>
       </c>
       <c r="C55" s="4">
         <v>17</v>
       </c>
       <c r="D55" s="4">
-        <v>1277</v>
+        <v>1286</v>
       </c>
       <c r="E55" s="4">
-        <v>3475</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>1909</v>
+        <v>1920</v>
       </c>
       <c r="C56" s="4">
         <v>12</v>
@@ -1998,7 +1998,7 @@
         <v>34</v>
       </c>
       <c r="E56" s="4">
-        <v>1955</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C57" s="4">
         <v>54</v>
       </c>
       <c r="D57" s="4">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E57" s="4">
-        <v>2089</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>1860187</v>
+        <v>1871000</v>
       </c>
       <c r="C58" s="4">
-        <v>118822</v>
+        <v>119165</v>
       </c>
       <c r="D58" s="4">
-        <v>123713</v>
+        <v>124137</v>
       </c>
       <c r="E58" s="4">
-        <v>2102722</v>
+        <v>2114302</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>6810</v>
+        <v>6875</v>
       </c>
       <c r="C59" s="4">
         <v>413</v>
       </c>
       <c r="D59" s="4">
-        <v>1655</v>
+        <v>1669</v>
       </c>
       <c r="E59" s="4">
-        <v>8878</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>6946</v>
+        <v>6974</v>
       </c>
       <c r="C60" s="4">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D60" s="4">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="E60" s="4">
-        <v>8915</v>
+        <v>8949</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4096</v>
+        <v>4118</v>
       </c>
       <c r="C61" s="4">
         <v>245</v>
       </c>
       <c r="D61" s="4">
-        <v>1593</v>
+        <v>1657</v>
       </c>
       <c r="E61" s="4">
-        <v>5934</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1472</v>
+        <v>1487</v>
       </c>
       <c r="C62" s="4">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D62" s="4">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="E62" s="4">
-        <v>2495</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>451098</v>
+        <v>453775</v>
       </c>
       <c r="C63" s="4">
-        <v>53035</v>
+        <v>53246</v>
       </c>
       <c r="D63" s="4">
-        <v>49238</v>
+        <v>49589</v>
       </c>
       <c r="E63" s="4">
-        <v>553371</v>
+        <v>556610</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2131,10 +2131,10 @@
         <v>5</v>
       </c>
       <c r="D64" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E64" s="4">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,7 +2142,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>7866</v>
+        <v>7984</v>
       </c>
       <c r="C65" s="4">
         <v>80</v>
@@ -2151,7 +2151,7 @@
         <v>426</v>
       </c>
       <c r="E65" s="4">
-        <v>8372</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="C66" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="4">
         <v>511</v>
       </c>
       <c r="E66" s="4">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>14530</v>
+        <v>14741</v>
       </c>
       <c r="C67" s="4">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="D67" s="4">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="E67" s="4">
-        <v>17443</v>
+        <v>17661</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>3991</v>
+        <v>4012</v>
       </c>
       <c r="C68" s="4">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D68" s="4">
-        <v>2599</v>
+        <v>2603</v>
       </c>
       <c r="E68" s="4">
-        <v>6893</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>51299</v>
+        <v>51602</v>
       </c>
       <c r="C69" s="4">
-        <v>3990</v>
+        <v>4004</v>
       </c>
       <c r="D69" s="4">
-        <v>11002</v>
+        <v>11046</v>
       </c>
       <c r="E69" s="4">
-        <v>66291</v>
+        <v>66652</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,7 +2227,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
@@ -2236,7 +2236,7 @@
         <v>291</v>
       </c>
       <c r="E70" s="4">
-        <v>1371</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>704825</v>
+        <v>706467</v>
       </c>
       <c r="C71" s="4">
-        <v>15185</v>
+        <v>15224</v>
       </c>
       <c r="D71" s="4">
-        <v>91864</v>
+        <v>92038</v>
       </c>
       <c r="E71" s="4">
-        <v>811874</v>
+        <v>813729</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>132352</v>
+        <v>133262</v>
       </c>
       <c r="C72" s="4">
-        <v>6429</v>
+        <v>6465</v>
       </c>
       <c r="D72" s="4">
-        <v>6192</v>
+        <v>6220</v>
       </c>
       <c r="E72" s="4">
-        <v>144973</v>
+        <v>145947</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>14713</v>
+        <v>14754</v>
       </c>
       <c r="C73" s="4">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D73" s="4">
         <v>3911</v>
       </c>
       <c r="E73" s="4">
-        <v>19641</v>
+        <v>19684</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>10912</v>
+        <v>10952</v>
       </c>
       <c r="C74" s="4">
         <v>375</v>
       </c>
       <c r="D74" s="4">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="E74" s="4">
-        <v>12521</v>
+        <v>12563</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>20494</v>
+        <v>20664</v>
       </c>
       <c r="C75" s="4">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="D75" s="4">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="E75" s="4">
-        <v>24211</v>
+        <v>24388</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>11722</v>
+        <v>11794</v>
       </c>
       <c r="C76" s="4">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D76" s="4">
-        <v>1239</v>
+        <v>1260</v>
       </c>
       <c r="E76" s="4">
-        <v>13293</v>
+        <v>13387</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="C77" s="4">
         <v>27</v>
       </c>
       <c r="D77" s="4">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E77" s="4">
-        <v>1456</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="C78" s="4">
         <v>106</v>
       </c>
       <c r="D78" s="4">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E78" s="4">
-        <v>2339</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,16 +2380,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C79" s="4">
         <v>6</v>
       </c>
       <c r="D79" s="4">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E79" s="4">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>508632</v>
+        <v>512220</v>
       </c>
       <c r="C80" s="4">
-        <v>19208</v>
+        <v>19334</v>
       </c>
       <c r="D80" s="4">
-        <v>18595</v>
+        <v>18689</v>
       </c>
       <c r="E80" s="4">
-        <v>546435</v>
+        <v>550243</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3676</v>
+        <v>3698</v>
       </c>
       <c r="C81" s="4">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D81" s="4">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E81" s="4">
-        <v>4614</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>11704</v>
+        <v>11802</v>
       </c>
       <c r="C82" s="4">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D82" s="4">
-        <v>2577</v>
+        <v>2594</v>
       </c>
       <c r="E82" s="4">
-        <v>14892</v>
+        <v>15012</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>12811</v>
+        <v>12951</v>
       </c>
       <c r="C83" s="4">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D83" s="4">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E83" s="4">
-        <v>13548</v>
+        <v>13690</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>2943</v>
+        <v>2952</v>
       </c>
       <c r="C84" s="4">
         <v>190</v>
       </c>
       <c r="D84" s="4">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E84" s="4">
-        <v>3756</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>266089</v>
+        <v>267111</v>
       </c>
       <c r="C85" s="4">
-        <v>8133</v>
+        <v>8193</v>
       </c>
       <c r="D85" s="4">
-        <v>14476</v>
+        <v>14519</v>
       </c>
       <c r="E85" s="4">
-        <v>288698</v>
+        <v>289823</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1382</v>
+        <v>1392</v>
       </c>
       <c r="C86" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D86" s="4">
-        <v>1175</v>
+        <v>1198</v>
       </c>
       <c r="E86" s="4">
-        <v>2600</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>14005</v>
+        <v>14064</v>
       </c>
       <c r="C87" s="4">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D87" s="4">
-        <v>2363</v>
+        <v>2367</v>
       </c>
       <c r="E87" s="4">
-        <v>16677</v>
+        <v>16742</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2539,10 +2539,10 @@
         <v>25</v>
       </c>
       <c r="D88" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E88" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2174</v>
+        <v>2185</v>
       </c>
       <c r="C89" s="4">
         <v>142</v>
       </c>
       <c r="D89" s="4">
-        <v>1147</v>
+        <v>1178</v>
       </c>
       <c r="E89" s="4">
-        <v>3463</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>11024</v>
+        <v>11085</v>
       </c>
       <c r="C90" s="4">
         <v>275</v>
       </c>
       <c r="D90" s="4">
-        <v>2307</v>
+        <v>2319</v>
       </c>
       <c r="E90" s="4">
-        <v>13606</v>
+        <v>13679</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6624</v>
+        <v>6675</v>
       </c>
       <c r="C91" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="4">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="E91" s="4">
-        <v>8179</v>
+        <v>8234</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>83550</v>
+        <v>83940</v>
       </c>
       <c r="C92" s="4">
-        <v>3341</v>
+        <v>3352</v>
       </c>
       <c r="D92" s="4">
-        <v>8782</v>
+        <v>8793</v>
       </c>
       <c r="E92" s="4">
-        <v>95673</v>
+        <v>96085</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>40173</v>
+        <v>40493</v>
       </c>
       <c r="C93" s="4">
-        <v>8630</v>
+        <v>8776</v>
       </c>
       <c r="D93" s="4">
-        <v>10154</v>
+        <v>10268</v>
       </c>
       <c r="E93" s="4">
-        <v>58957</v>
+        <v>59537</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>21282</v>
+        <v>21595</v>
       </c>
       <c r="C94" s="4">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D94" s="4">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="E94" s="4">
-        <v>22743</v>
+        <v>23061</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>59464</v>
+        <v>60305</v>
       </c>
       <c r="C95" s="4">
-        <v>2786</v>
+        <v>2801</v>
       </c>
       <c r="D95" s="4">
-        <v>9865</v>
+        <v>9892</v>
       </c>
       <c r="E95" s="4">
-        <v>72115</v>
+        <v>72998</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>11091</v>
+        <v>11176</v>
       </c>
       <c r="C96" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D96" s="4">
-        <v>1599</v>
+        <v>1614</v>
       </c>
       <c r="E96" s="4">
-        <v>12929</v>
+        <v>13030</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="C97" s="4">
         <v>21</v>
       </c>
       <c r="D97" s="4">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="E97" s="4">
-        <v>2759</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4169</v>
+        <v>4214</v>
       </c>
       <c r="C98" s="4">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D98" s="4">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E98" s="4">
-        <v>5206</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,7 +2720,7 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C99" s="4">
         <v>336</v>
@@ -2729,7 +2729,7 @@
         <v>1451</v>
       </c>
       <c r="E99" s="4">
-        <v>2898</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="C100" s="4">
         <v>57</v>
       </c>
       <c r="D100" s="4">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E100" s="4">
-        <v>2085</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>16140</v>
+        <v>16283</v>
       </c>
       <c r="C101" s="4">
-        <v>3029</v>
+        <v>3032</v>
       </c>
       <c r="D101" s="4">
-        <v>4034</v>
+        <v>4058</v>
       </c>
       <c r="E101" s="4">
-        <v>23203</v>
+        <v>23373</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3111650</v>
+        <v>3130783</v>
       </c>
       <c r="C102" s="4">
-        <v>116972</v>
+        <v>117636</v>
       </c>
       <c r="D102" s="4">
-        <v>173733</v>
+        <v>174459</v>
       </c>
       <c r="E102" s="4">
-        <v>3402355</v>
+        <v>3422878</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>49922</v>
+        <v>50188</v>
       </c>
       <c r="C103" s="4">
-        <v>6288</v>
+        <v>6369</v>
       </c>
       <c r="D103" s="4">
-        <v>5744</v>
+        <v>5813</v>
       </c>
       <c r="E103" s="4">
-        <v>61954</v>
+        <v>62370</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2805,7 +2805,7 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C104" s="4">
         <v>13</v>
@@ -2814,7 +2814,7 @@
         <v>77</v>
       </c>
       <c r="E104" s="4">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1118</v>
+        <v>1133</v>
       </c>
       <c r="C105" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D105" s="4">
         <v>1115</v>
       </c>
       <c r="E105" s="4">
-        <v>2264</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>181332</v>
+        <v>184284</v>
       </c>
       <c r="C106" s="4">
-        <v>9641</v>
+        <v>9679</v>
       </c>
       <c r="D106" s="4">
-        <v>8124</v>
+        <v>8175</v>
       </c>
       <c r="E106" s="4">
-        <v>199097</v>
+        <v>202138</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>22509</v>
+        <v>22585</v>
       </c>
       <c r="C108" s="4">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="D108" s="4">
-        <v>4850</v>
+        <v>4926</v>
       </c>
       <c r="E108" s="4">
-        <v>29335</v>
+        <v>29494</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>363418</v>
+        <v>365409</v>
       </c>
       <c r="C109" s="4">
-        <v>13320</v>
+        <v>13382</v>
       </c>
       <c r="D109" s="4">
-        <v>60902</v>
+        <v>61207</v>
       </c>
       <c r="E109" s="4">
-        <v>437640</v>
+        <v>439998</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>28672</v>
+        <v>28739</v>
       </c>
       <c r="C110" s="4">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D110" s="4">
-        <v>3989</v>
+        <v>4005</v>
       </c>
       <c r="E110" s="4">
-        <v>33594</v>
+        <v>33679</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>6711</v>
+        <v>6731</v>
       </c>
       <c r="C111" s="4">
         <v>73</v>
       </c>
       <c r="D111" s="4">
-        <v>2394</v>
+        <v>2403</v>
       </c>
       <c r="E111" s="4">
-        <v>9178</v>
+        <v>9207</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>29600</v>
+        <v>29677</v>
       </c>
       <c r="C112" s="4">
-        <v>2172</v>
+        <v>2179</v>
       </c>
       <c r="D112" s="4">
-        <v>13449</v>
+        <v>13506</v>
       </c>
       <c r="E112" s="4">
-        <v>45221</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>14369</v>
+        <v>14459</v>
       </c>
       <c r="C113" s="4">
-        <v>1775</v>
+        <v>1781</v>
       </c>
       <c r="D113" s="4">
-        <v>1841</v>
+        <v>1890</v>
       </c>
       <c r="E113" s="4">
-        <v>17985</v>
+        <v>18130</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>13196</v>
+        <v>13319</v>
       </c>
       <c r="C114" s="4">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D114" s="4">
-        <v>1602</v>
+        <v>1651</v>
       </c>
       <c r="E114" s="4">
-        <v>15107</v>
+        <v>15280</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>13239</v>
+        <v>13343</v>
       </c>
       <c r="C115" s="4">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D115" s="4">
-        <v>2928</v>
+        <v>2941</v>
       </c>
       <c r="E115" s="4">
-        <v>16567</v>
+        <v>16687</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2067</v>
+        <v>2075</v>
       </c>
       <c r="C116" s="4">
         <v>25</v>
       </c>
       <c r="D116" s="4">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E116" s="4">
-        <v>2697</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>62149</v>
+        <v>62561</v>
       </c>
       <c r="C117" s="4">
-        <v>3272</v>
+        <v>3281</v>
       </c>
       <c r="D117" s="4">
-        <v>6414</v>
+        <v>6446</v>
       </c>
       <c r="E117" s="4">
-        <v>71835</v>
+        <v>72288</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>7601</v>
+        <v>7654</v>
       </c>
       <c r="C118" s="4">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D118" s="4">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="E118" s="4">
-        <v>10313</v>
+        <v>10369</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C119" s="4">
         <v>8</v>
       </c>
       <c r="D119" s="4">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E119" s="4">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1436</v>
+        <v>1441</v>
       </c>
       <c r="C120" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D120" s="4">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E120" s="4">
-        <v>1740</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6087</v>
+        <v>6106</v>
       </c>
       <c r="C121" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D121" s="4">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="E121" s="4">
-        <v>7029</v>
+        <v>7062</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>11077</v>
+        <v>11133</v>
       </c>
       <c r="C122" s="4">
-        <v>2456</v>
+        <v>2462</v>
       </c>
       <c r="D122" s="4">
-        <v>2096</v>
+        <v>2128</v>
       </c>
       <c r="E122" s="4">
-        <v>15629</v>
+        <v>15723</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C123" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D123" s="4">
         <v>115</v>
       </c>
       <c r="E123" s="4">
-        <v>1661</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>136214</v>
+        <v>136776</v>
       </c>
       <c r="C124" s="4">
-        <v>11197</v>
+        <v>11251</v>
       </c>
       <c r="D124" s="4">
-        <v>19598</v>
+        <v>19725</v>
       </c>
       <c r="E124" s="4">
-        <v>167009</v>
+        <v>167752</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>10591</v>
+        <v>10975</v>
       </c>
       <c r="C125" s="4">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D125" s="4">
         <v>397</v>
       </c>
       <c r="E125" s="4">
-        <v>11422</v>
+        <v>11807</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>40078</v>
+        <v>40301</v>
       </c>
       <c r="C126" s="4">
-        <v>6612</v>
+        <v>6630</v>
       </c>
       <c r="D126" s="4">
-        <v>9395</v>
+        <v>9415</v>
       </c>
       <c r="E126" s="4">
-        <v>56085</v>
+        <v>56346</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>96858</v>
+        <v>97294</v>
       </c>
       <c r="C127" s="4">
-        <v>5974</v>
+        <v>5994</v>
       </c>
       <c r="D127" s="4">
-        <v>9760</v>
+        <v>9790</v>
       </c>
       <c r="E127" s="4">
-        <v>112592</v>
+        <v>113078</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5191</v>
+        <v>5216</v>
       </c>
       <c r="C128" s="4">
         <v>180</v>
       </c>
       <c r="D128" s="4">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="E128" s="4">
-        <v>7369</v>
+        <v>7399</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>11484</v>
+        <v>11563</v>
       </c>
       <c r="C129" s="4">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D129" s="4">
-        <v>2986</v>
+        <v>2993</v>
       </c>
       <c r="E129" s="4">
-        <v>14824</v>
+        <v>14912</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>83338</v>
+        <v>83887</v>
       </c>
       <c r="C130" s="4">
-        <v>4604</v>
+        <v>4620</v>
       </c>
       <c r="D130" s="4">
-        <v>9755</v>
+        <v>9772</v>
       </c>
       <c r="E130" s="4">
-        <v>97697</v>
+        <v>98279</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>17882</v>
+        <v>18357</v>
       </c>
       <c r="C131" s="4">
-        <v>1089</v>
+        <v>1105</v>
       </c>
       <c r="D131" s="4">
-        <v>4760</v>
+        <v>4805</v>
       </c>
       <c r="E131" s="4">
-        <v>23731</v>
+        <v>24267</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,7 +3281,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C132" s="4">
         <v>32</v>
@@ -3290,7 +3290,7 @@
         <v>35</v>
       </c>
       <c r="E132" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3298,7 +3298,7 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>259</v>
       </c>
       <c r="E133" s="4">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>25283</v>
+        <v>25711</v>
       </c>
       <c r="C134" s="4">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D134" s="4">
-        <v>14690</v>
+        <v>14694</v>
       </c>
       <c r="E134" s="4">
-        <v>40504</v>
+        <v>40938</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,7 +3332,7 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C135" s="4">
         <v>36</v>
@@ -3341,7 +3341,7 @@
         <v>261</v>
       </c>
       <c r="E135" s="4">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,7 +3366,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1810</v>
+        <v>1821</v>
       </c>
       <c r="C137" s="4">
         <v>37</v>
@@ -3375,7 +3375,7 @@
         <v>60</v>
       </c>
       <c r="E137" s="4">
-        <v>1907</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>22372</v>
+        <v>22591</v>
       </c>
       <c r="C138" s="4">
-        <v>3664</v>
+        <v>3680</v>
       </c>
       <c r="D138" s="4">
-        <v>3896</v>
+        <v>3908</v>
       </c>
       <c r="E138" s="4">
-        <v>29932</v>
+        <v>30179</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C139" s="4">
         <v>31</v>
       </c>
       <c r="D139" s="4">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="E139" s="4">
-        <v>2366</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,7 +3417,7 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6148</v>
+        <v>6205</v>
       </c>
       <c r="C140" s="4">
         <v>267</v>
@@ -3426,7 +3426,7 @@
         <v>163</v>
       </c>
       <c r="E140" s="4">
-        <v>6578</v>
+        <v>6635</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>18151</v>
+        <v>18300</v>
       </c>
       <c r="C141" s="4">
-        <v>1944</v>
+        <v>1968</v>
       </c>
       <c r="D141" s="4">
-        <v>1890</v>
+        <v>1983</v>
       </c>
       <c r="E141" s="4">
-        <v>21985</v>
+        <v>22251</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>4933</v>
+        <v>4942</v>
       </c>
       <c r="C142" s="4">
         <v>71</v>
       </c>
       <c r="D142" s="4">
-        <v>3248</v>
+        <v>3271</v>
       </c>
       <c r="E142" s="4">
-        <v>8252</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>13322</v>
+        <v>13461</v>
       </c>
       <c r="C143" s="4">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D143" s="4">
-        <v>2109</v>
+        <v>2186</v>
       </c>
       <c r="E143" s="4">
-        <v>16009</v>
+        <v>16227</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>9781</v>
+        <v>9812</v>
       </c>
       <c r="C144" s="4">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D144" s="4">
-        <v>1829</v>
+        <v>1860</v>
       </c>
       <c r="E144" s="4">
-        <v>11960</v>
+        <v>12026</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>6684</v>
+        <v>6727</v>
       </c>
       <c r="C145" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D145" s="4">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="E145" s="4">
-        <v>8679</v>
+        <v>8731</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>7835</v>
+        <v>7899</v>
       </c>
       <c r="C146" s="4">
         <v>438</v>
       </c>
       <c r="D146" s="4">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="E146" s="4">
-        <v>9272</v>
+        <v>9347</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>41702</v>
+        <v>41952</v>
       </c>
       <c r="C147" s="4">
-        <v>2673</v>
+        <v>2687</v>
       </c>
       <c r="D147" s="4">
-        <v>3478</v>
+        <v>3500</v>
       </c>
       <c r="E147" s="4">
-        <v>47853</v>
+        <v>48139</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>24426</v>
+        <v>24768</v>
       </c>
       <c r="C148" s="4">
         <v>541</v>
       </c>
       <c r="D148" s="4">
-        <v>2809</v>
+        <v>2828</v>
       </c>
       <c r="E148" s="4">
-        <v>27776</v>
+        <v>28137</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,16 +3570,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C149" s="4">
         <v>17</v>
       </c>
       <c r="D149" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E149" s="4">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4165</v>
+        <v>4182</v>
       </c>
       <c r="C150" s="4">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D150" s="4">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E150" s="4">
-        <v>5416</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,7 +3604,7 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>8220</v>
+        <v>8276</v>
       </c>
       <c r="C151" s="4">
         <v>292</v>
@@ -3613,7 +3613,7 @@
         <v>634</v>
       </c>
       <c r="E151" s="4">
-        <v>9146</v>
+        <v>9202</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>169205</v>
+        <v>170146</v>
       </c>
       <c r="C153" s="4">
-        <v>6041</v>
+        <v>6072</v>
       </c>
       <c r="D153" s="4">
-        <v>71923</v>
+        <v>72648</v>
       </c>
       <c r="E153" s="4">
-        <v>247169</v>
+        <v>248866</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2644</v>
+        <v>2649</v>
       </c>
       <c r="C154" s="4">
         <v>81</v>
       </c>
       <c r="D154" s="4">
-        <v>1176</v>
+        <v>1184</v>
       </c>
       <c r="E154" s="4">
-        <v>3901</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>10436</v>
+        <v>10511</v>
       </c>
       <c r="C155" s="4">
         <v>135</v>
       </c>
       <c r="D155" s="4">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E155" s="4">
-        <v>11640</v>
+        <v>11716</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>1910</v>
+        <v>1921</v>
       </c>
       <c r="C156" s="4">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="D156" s="4">
-        <v>814</v>
+        <v>837</v>
       </c>
       <c r="E156" s="4">
-        <v>3373</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="C157" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D157" s="4">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E157" s="4">
-        <v>1554</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1759</v>
+        <v>1772</v>
       </c>
       <c r="C158" s="4">
         <v>45</v>
       </c>
       <c r="D158" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E158" s="4">
-        <v>1994</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>24628</v>
+        <v>24847</v>
       </c>
       <c r="C159" s="4">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D159" s="4">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="E159" s="4">
-        <v>26711</v>
+        <v>26935</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>47446</v>
+        <v>48084</v>
       </c>
       <c r="C160" s="4">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D160" s="4">
         <v>3125</v>
       </c>
       <c r="E160" s="4">
-        <v>50839</v>
+        <v>51478</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2082</v>
+        <v>2089</v>
       </c>
       <c r="C161" s="4">
         <v>37</v>
       </c>
       <c r="D161" s="4">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="E161" s="4">
-        <v>2938</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>193867</v>
+        <v>194402</v>
       </c>
       <c r="C162" s="4">
-        <v>9123</v>
+        <v>9153</v>
       </c>
       <c r="D162" s="4">
-        <v>36153</v>
+        <v>36187</v>
       </c>
       <c r="E162" s="4">
-        <v>239143</v>
+        <v>239742</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,16 +3808,16 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C163" s="4">
         <v>34</v>
       </c>
       <c r="D163" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E163" s="4">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>22124</v>
+        <v>22521</v>
       </c>
       <c r="C164" s="4">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="D164" s="4">
-        <v>2871</v>
+        <v>2955</v>
       </c>
       <c r="E164" s="4">
-        <v>25925</v>
+        <v>26411</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,7 +3842,7 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="C165" s="4">
         <v>20</v>
@@ -3851,7 +3851,7 @@
         <v>198</v>
       </c>
       <c r="E165" s="4">
-        <v>2181</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>38012</v>
+        <v>38249</v>
       </c>
       <c r="C166" s="4">
-        <v>4880</v>
+        <v>4905</v>
       </c>
       <c r="D166" s="4">
-        <v>26949</v>
+        <v>27100</v>
       </c>
       <c r="E166" s="4">
-        <v>69841</v>
+        <v>70254</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>13263</v>
+        <v>13343</v>
       </c>
       <c r="C167" s="4">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D167" s="4">
-        <v>3891</v>
+        <v>3899</v>
       </c>
       <c r="E167" s="4">
-        <v>17932</v>
+        <v>18021</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3707</v>
+        <v>3714</v>
       </c>
       <c r="C168" s="4">
         <v>79</v>
       </c>
       <c r="D168" s="4">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="E168" s="4">
-        <v>4610</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>3977</v>
+        <v>3989</v>
       </c>
       <c r="C169" s="4">
         <v>47</v>
       </c>
       <c r="D169" s="4">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="E169" s="4">
-        <v>5988</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>8832</v>
+        <v>8868</v>
       </c>
       <c r="C170" s="4">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D170" s="4">
-        <v>1958</v>
+        <v>1963</v>
       </c>
       <c r="E170" s="4">
-        <v>11296</v>
+        <v>11339</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>282778</v>
+        <v>284730</v>
       </c>
       <c r="C171" s="4">
-        <v>14248</v>
+        <v>14325</v>
       </c>
       <c r="D171" s="4">
-        <v>22026</v>
+        <v>22387</v>
       </c>
       <c r="E171" s="4">
-        <v>319052</v>
+        <v>321442</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>6759</v>
+        <v>6762</v>
       </c>
       <c r="C172" s="4">
         <v>122</v>
       </c>
       <c r="D172" s="4">
-        <v>1290</v>
+        <v>1307</v>
       </c>
       <c r="E172" s="4">
-        <v>8171</v>
+        <v>8191</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>4623</v>
+        <v>4659</v>
       </c>
       <c r="C173" s="4">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="D173" s="4">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="E173" s="4">
-        <v>7824</v>
+        <v>7869</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>33746</v>
+        <v>33956</v>
       </c>
       <c r="C175" s="4">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="D175" s="4">
-        <v>3297</v>
+        <v>3310</v>
       </c>
       <c r="E175" s="4">
-        <v>38045</v>
+        <v>38275</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>21830</v>
+        <v>22047</v>
       </c>
       <c r="C176" s="4">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D176" s="4">
-        <v>5985</v>
+        <v>5990</v>
       </c>
       <c r="E176" s="4">
-        <v>29247</v>
+        <v>29470</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>2795</v>
+        <v>2806</v>
       </c>
       <c r="C177" s="4">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D177" s="4">
-        <v>1216</v>
+        <v>1224</v>
       </c>
       <c r="E177" s="4">
-        <v>4741</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>6161</v>
+        <v>6195</v>
       </c>
       <c r="C178" s="4">
         <v>126</v>
       </c>
       <c r="D178" s="4">
-        <v>2219</v>
+        <v>2253</v>
       </c>
       <c r="E178" s="4">
-        <v>8506</v>
+        <v>8574</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>180619</v>
+        <v>181519</v>
       </c>
       <c r="C179" s="4">
-        <v>35341</v>
+        <v>35492</v>
       </c>
       <c r="D179" s="4">
-        <v>28487</v>
+        <v>28619</v>
       </c>
       <c r="E179" s="4">
-        <v>244447</v>
+        <v>245630</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C180" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D180" s="4">
         <v>215</v>
       </c>
       <c r="E180" s="4">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4117,13 +4117,13 @@
         <v>620</v>
       </c>
       <c r="C181" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D181" s="4">
         <v>109</v>
       </c>
       <c r="E181" s="4">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>22153</v>
+        <v>22280</v>
       </c>
       <c r="C182" s="4">
-        <v>4902</v>
+        <v>4918</v>
       </c>
       <c r="D182" s="4">
-        <v>6039</v>
+        <v>6070</v>
       </c>
       <c r="E182" s="4">
-        <v>33094</v>
+        <v>33268</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>11163</v>
+        <v>11199</v>
       </c>
       <c r="C183" s="4">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="D183" s="4">
-        <v>2991</v>
+        <v>3025</v>
       </c>
       <c r="E183" s="4">
-        <v>14997</v>
+        <v>15073</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>7327</v>
+        <v>7357</v>
       </c>
       <c r="C184" s="4">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="D184" s="4">
-        <v>1459</v>
+        <v>1580</v>
       </c>
       <c r="E184" s="4">
-        <v>9672</v>
+        <v>9830</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>54706</v>
+        <v>55080</v>
       </c>
       <c r="C185" s="4">
-        <v>5442</v>
+        <v>5452</v>
       </c>
       <c r="D185" s="4">
-        <v>11364</v>
+        <v>11654</v>
       </c>
       <c r="E185" s="4">
-        <v>71512</v>
+        <v>72186</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1659</v>
+        <v>1669</v>
       </c>
       <c r="C186" s="4">
         <v>61</v>
       </c>
       <c r="D186" s="4">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E186" s="4">
-        <v>2513</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,7 +4216,7 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>8340</v>
+        <v>8406</v>
       </c>
       <c r="C187" s="4">
         <v>82</v>
@@ -4225,7 +4225,7 @@
         <v>605</v>
       </c>
       <c r="E187" s="4">
-        <v>9027</v>
+        <v>9093</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>23186</v>
+        <v>23452</v>
       </c>
       <c r="C188" s="4">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="D188" s="4">
-        <v>3209</v>
+        <v>3216</v>
       </c>
       <c r="E188" s="4">
-        <v>27428</v>
+        <v>27708</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>61726</v>
+        <v>61899</v>
       </c>
       <c r="C189" s="4">
-        <v>2632</v>
+        <v>2637</v>
       </c>
       <c r="D189" s="4">
-        <v>7282</v>
+        <v>7319</v>
       </c>
       <c r="E189" s="4">
-        <v>71640</v>
+        <v>71855</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,7 +4267,7 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>6826</v>
+        <v>6831</v>
       </c>
       <c r="C190" s="4">
         <v>35</v>
@@ -4276,7 +4276,7 @@
         <v>476</v>
       </c>
       <c r="E190" s="4">
-        <v>7337</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2303</v>
+        <v>2318</v>
       </c>
       <c r="C191" s="4">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D191" s="4">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="E191" s="4">
-        <v>3052</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>38963</v>
+        <v>39190</v>
       </c>
       <c r="C192" s="4">
-        <v>4913</v>
+        <v>4925</v>
       </c>
       <c r="D192" s="4">
-        <v>7083</v>
+        <v>7144</v>
       </c>
       <c r="E192" s="4">
-        <v>50959</v>
+        <v>51259</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,16 +4318,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="C193" s="4">
         <v>26</v>
       </c>
       <c r="D193" s="4">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E193" s="4">
-        <v>1160</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,7 +4335,7 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1635</v>
+        <v>1641</v>
       </c>
       <c r="C194" s="4">
         <v>61</v>
@@ -4344,7 +4344,7 @@
         <v>371</v>
       </c>
       <c r="E194" s="4">
-        <v>2067</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>4914</v>
+        <v>4961</v>
       </c>
       <c r="C195" s="4">
         <v>451</v>
       </c>
       <c r="D195" s="4">
-        <v>877</v>
+        <v>914</v>
       </c>
       <c r="E195" s="4">
-        <v>6242</v>
+        <v>6326</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,7 +4369,7 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>4529</v>
+        <v>4549</v>
       </c>
       <c r="C196" s="4">
         <v>114</v>
@@ -4378,7 +4378,7 @@
         <v>272</v>
       </c>
       <c r="E196" s="4">
-        <v>4915</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3407</v>
+        <v>3422</v>
       </c>
       <c r="C197" s="4">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D197" s="4">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="E197" s="4">
-        <v>5388</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>9523</v>
+        <v>9629</v>
       </c>
       <c r="C199" s="4">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D199" s="4">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="E199" s="4">
-        <v>13928</v>
+        <v>14037</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>59600</v>
+        <v>60028</v>
       </c>
       <c r="C200" s="4">
-        <v>4587</v>
+        <v>4608</v>
       </c>
       <c r="D200" s="4">
-        <v>3468</v>
+        <v>3477</v>
       </c>
       <c r="E200" s="4">
-        <v>67655</v>
+        <v>68113</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5088</v>
+        <v>5106</v>
       </c>
       <c r="C201" s="4">
         <v>135</v>
       </c>
       <c r="D201" s="4">
-        <v>1971</v>
+        <v>1980</v>
       </c>
       <c r="E201" s="4">
-        <v>7194</v>
+        <v>7221</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>15246</v>
+        <v>15369</v>
       </c>
       <c r="C202" s="4">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="D202" s="4">
-        <v>1438</v>
+        <v>1451</v>
       </c>
       <c r="E202" s="4">
-        <v>18434</v>
+        <v>18578</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>4637</v>
+        <v>4686</v>
       </c>
       <c r="C203" s="4">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D203" s="4">
-        <v>1261</v>
+        <v>1275</v>
       </c>
       <c r="E203" s="4">
-        <v>6253</v>
+        <v>6317</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>4539</v>
+        <v>4548</v>
       </c>
       <c r="C204" s="4">
         <v>56</v>
       </c>
       <c r="D204" s="4">
-        <v>1216</v>
+        <v>1316</v>
       </c>
       <c r="E204" s="4">
-        <v>5811</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>12579</v>
+        <v>12731</v>
       </c>
       <c r="C205" s="4">
         <v>1320</v>
       </c>
       <c r="D205" s="4">
-        <v>1609</v>
+        <v>1616</v>
       </c>
       <c r="E205" s="4">
-        <v>15508</v>
+        <v>15667</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>23939</v>
+        <v>24087</v>
       </c>
       <c r="C206" s="4">
-        <v>6468</v>
+        <v>6497</v>
       </c>
       <c r="D206" s="4">
-        <v>9861</v>
+        <v>9909</v>
       </c>
       <c r="E206" s="4">
-        <v>40268</v>
+        <v>40493</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,7 +4556,7 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2271</v>
+        <v>2362</v>
       </c>
       <c r="C207" s="4">
         <v>74</v>
@@ -4565,7 +4565,7 @@
         <v>1416</v>
       </c>
       <c r="E207" s="4">
-        <v>3761</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E208" s="4">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15299</v>
+        <v>15317</v>
       </c>
       <c r="C209" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D209" s="4">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E209" s="4">
-        <v>15910</v>
+        <v>15931</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C210" s="4">
         <v>63</v>
       </c>
       <c r="D210" s="4">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E210" s="4">
-        <v>1031</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>10040</v>
+        <v>10076</v>
       </c>
       <c r="C211" s="4">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D211" s="4">
-        <v>1949</v>
+        <v>1981</v>
       </c>
       <c r="E211" s="4">
-        <v>12339</v>
+        <v>12416</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4647,10 +4647,10 @@
         <v>12</v>
       </c>
       <c r="D212" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E212" s="4">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>151261</v>
+        <v>151849</v>
       </c>
       <c r="C213" s="4">
-        <v>8589</v>
+        <v>8612</v>
       </c>
       <c r="D213" s="4">
-        <v>13503</v>
+        <v>13758</v>
       </c>
       <c r="E213" s="4">
-        <v>173353</v>
+        <v>174219</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3608</v>
+        <v>3614</v>
       </c>
       <c r="C214" s="4">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D214" s="4">
-        <v>3448</v>
+        <v>3458</v>
       </c>
       <c r="E214" s="4">
-        <v>7403</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>40022</v>
+        <v>40773</v>
       </c>
       <c r="C215" s="4">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D215" s="4">
-        <v>3359</v>
+        <v>3365</v>
       </c>
       <c r="E215" s="4">
-        <v>43857</v>
+        <v>44619</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2141</v>
+        <v>2149</v>
       </c>
       <c r="C216" s="4">
         <v>129</v>
       </c>
       <c r="D216" s="4">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="E216" s="4">
-        <v>3527</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,16 +4726,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C217" s="4">
         <v>6</v>
       </c>
       <c r="D217" s="4">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E217" s="4">
-        <v>862</v>
+        <v>869</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E218" s="4">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4766,10 +4766,10 @@
         <v>24</v>
       </c>
       <c r="D219" s="4">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="E219" s="4">
-        <v>1713</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3002</v>
+        <v>3124</v>
       </c>
       <c r="C220" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D220" s="4">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E220" s="4">
-        <v>3755</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1288367</v>
+        <v>1297627</v>
       </c>
       <c r="C221" s="4">
-        <v>82232</v>
+        <v>82450</v>
       </c>
       <c r="D221" s="4">
-        <v>113488</v>
+        <v>114143</v>
       </c>
       <c r="E221" s="4">
-        <v>1484087</v>
+        <v>1494220</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>74686</v>
+        <v>74803</v>
       </c>
       <c r="C222" s="4">
-        <v>2948</v>
+        <v>2954</v>
       </c>
       <c r="D222" s="4">
-        <v>27706</v>
+        <v>27842</v>
       </c>
       <c r="E222" s="4">
-        <v>105340</v>
+        <v>105599</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="C224" s="4">
         <v>97</v>
       </c>
       <c r="D224" s="4">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="E224" s="4">
-        <v>3725</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4868,10 +4868,10 @@
         <v>19</v>
       </c>
       <c r="D225" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E225" s="4">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>19243</v>
+        <v>19318</v>
       </c>
       <c r="C226" s="4">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="D226" s="4">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="E226" s="4">
-        <v>22893</v>
+        <v>22973</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>64989</v>
+        <v>65337</v>
       </c>
       <c r="C227" s="4">
-        <v>1379</v>
+        <v>1386</v>
       </c>
       <c r="D227" s="4">
-        <v>31525</v>
+        <v>31832</v>
       </c>
       <c r="E227" s="4">
-        <v>97893</v>
+        <v>98555</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>775746</v>
+        <v>781185</v>
       </c>
       <c r="C228" s="4">
-        <v>36619</v>
+        <v>36739</v>
       </c>
       <c r="D228" s="4">
-        <v>79242</v>
+        <v>79603</v>
       </c>
       <c r="E228" s="4">
-        <v>891607</v>
+        <v>897527</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>8414</v>
+        <v>8530</v>
       </c>
       <c r="C229" s="4">
         <v>203</v>
       </c>
       <c r="D229" s="4">
-        <v>1805</v>
+        <v>1810</v>
       </c>
       <c r="E229" s="4">
-        <v>10422</v>
+        <v>10543</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>7401</v>
+        <v>7431</v>
       </c>
       <c r="C230" s="4">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D230" s="4">
-        <v>3276</v>
+        <v>3282</v>
       </c>
       <c r="E230" s="4">
-        <v>11497</v>
+        <v>11534</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>8670</v>
+        <v>8769</v>
       </c>
       <c r="C231" s="4">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="D231" s="4">
-        <v>2562</v>
+        <v>2582</v>
       </c>
       <c r="E231" s="4">
-        <v>12954</v>
+        <v>13093</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,7 +4981,7 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="C232" s="4">
         <v>65</v>
@@ -4990,7 +4990,7 @@
         <v>1228</v>
       </c>
       <c r="E232" s="4">
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>20054</v>
+        <v>20422</v>
       </c>
       <c r="C233" s="4">
         <v>322</v>
       </c>
       <c r="D233" s="4">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E233" s="4">
-        <v>21121</v>
+        <v>21491</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>36199</v>
+        <v>36612</v>
       </c>
       <c r="C234" s="4">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D234" s="4">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="E234" s="4">
-        <v>41809</v>
+        <v>42224</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>15178</v>
+        <v>15254</v>
       </c>
       <c r="C235" s="4">
         <v>1627</v>
       </c>
       <c r="D235" s="4">
-        <v>4108</v>
+        <v>4159</v>
       </c>
       <c r="E235" s="4">
-        <v>20913</v>
+        <v>21040</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>32566</v>
+        <v>32658</v>
       </c>
       <c r="C236" s="4">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="D236" s="4">
-        <v>9206</v>
+        <v>9530</v>
       </c>
       <c r="E236" s="4">
-        <v>43072</v>
+        <v>43491</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>78692</v>
+        <v>80162</v>
       </c>
       <c r="C237" s="4">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="D237" s="4">
-        <v>4849</v>
+        <v>4858</v>
       </c>
       <c r="E237" s="4">
-        <v>84570</v>
+        <v>86055</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>24758</v>
+        <v>25078</v>
       </c>
       <c r="C238" s="4">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="D238" s="4">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="E238" s="4">
-        <v>26712</v>
+        <v>27042</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>3934</v>
+        <v>3969</v>
       </c>
       <c r="C239" s="4">
         <v>109</v>
       </c>
       <c r="D239" s="4">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E239" s="4">
-        <v>4283</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>30183</v>
+        <v>30464</v>
       </c>
       <c r="C240" s="4">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D240" s="4">
         <v>2724</v>
       </c>
       <c r="E240" s="4">
-        <v>33390</v>
+        <v>33672</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>290855</v>
+        <v>295872</v>
       </c>
       <c r="C241" s="4">
-        <v>4058</v>
+        <v>4074</v>
       </c>
       <c r="D241" s="4">
-        <v>29455</v>
+        <v>29549</v>
       </c>
       <c r="E241" s="4">
-        <v>324368</v>
+        <v>329495</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>25923</v>
+        <v>26032</v>
       </c>
       <c r="C242" s="4">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D242" s="4">
-        <v>1561</v>
+        <v>1571</v>
       </c>
       <c r="E242" s="4">
-        <v>28177</v>
+        <v>28298</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="C243" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D243" s="4">
         <v>1617</v>
       </c>
       <c r="E243" s="4">
-        <v>3161</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>92450</v>
+        <v>92750</v>
       </c>
       <c r="C244" s="4">
-        <v>1626</v>
+        <v>1640</v>
       </c>
       <c r="D244" s="4">
-        <v>14174</v>
+        <v>14363</v>
       </c>
       <c r="E244" s="4">
-        <v>108250</v>
+        <v>108753</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>9852</v>
+        <v>9889</v>
       </c>
       <c r="C245" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D245" s="4">
         <v>3023</v>
       </c>
       <c r="E245" s="4">
-        <v>13006</v>
+        <v>13044</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>18125</v>
+        <v>18229</v>
       </c>
       <c r="C246" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D246" s="4">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E246" s="4">
-        <v>18998</v>
+        <v>19110</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>329061</v>
+        <v>332694</v>
       </c>
       <c r="C247" s="4">
-        <v>12928</v>
+        <v>12979</v>
       </c>
       <c r="D247" s="4">
-        <v>32588</v>
+        <v>32862</v>
       </c>
       <c r="E247" s="4">
-        <v>374577</v>
+        <v>378535</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>24573</v>
+        <v>25048</v>
       </c>
       <c r="C248" s="4">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D248" s="4">
-        <v>4744</v>
+        <v>4786</v>
       </c>
       <c r="E248" s="4">
-        <v>30139</v>
+        <v>30658</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C249" s="4">
         <v>37</v>
       </c>
       <c r="D249" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E249" s="4">
-        <v>1052</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>37116</v>
+        <v>37312</v>
       </c>
       <c r="C250" s="4">
-        <v>2858</v>
+        <v>2861</v>
       </c>
       <c r="D250" s="4">
-        <v>3799</v>
+        <v>3837</v>
       </c>
       <c r="E250" s="4">
-        <v>43773</v>
+        <v>44010</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>13804</v>
+        <v>13888</v>
       </c>
       <c r="C251" s="4">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="D251" s="4">
-        <v>2439</v>
+        <v>2471</v>
       </c>
       <c r="E251" s="4">
-        <v>17937</v>
+        <v>18055</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2052</v>
+        <v>2059</v>
       </c>
       <c r="C252" s="4">
         <v>78</v>
       </c>
       <c r="D252" s="4">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E252" s="4">
-        <v>2477</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>5804</v>
+        <v>5818</v>
       </c>
       <c r="C253" s="4">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D253" s="4">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="E253" s="4">
-        <v>7403</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>13798</v>
+        <v>14094</v>
       </c>
       <c r="C254" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D254" s="4">
         <v>2582</v>
       </c>
       <c r="E254" s="4">
-        <v>16490</v>
+        <v>16788</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>7928</v>
+        <v>8020</v>
       </c>
       <c r="C255" s="4">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D255" s="4">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E255" s="4">
-        <v>8428</v>
+        <v>8525</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>126777</v>
+        <v>126849</v>
       </c>
       <c r="C256" s="4">
         <v>5083</v>
       </c>
       <c r="D256" s="4">
-        <v>2608</v>
+        <v>2616</v>
       </c>
       <c r="E256" s="4">
-        <v>134468</v>
+        <v>134548</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>17694874</v>
+        <v>17846886</v>
       </c>
       <c r="C257" s="4">
-        <v>933639</v>
+        <v>937452</v>
       </c>
       <c r="D257" s="4">
-        <v>1868992</v>
+        <v>1880415</v>
       </c>
       <c r="E257" s="4">
-        <v>20497505</v>
+        <v>20664753</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
